--- a/Assets/Resource_SVN/Table/TestSvnExporter.xlsx
+++ b/Assets/Resource_SVN/Table/TestSvnExporter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="14331" windowHeight="8322"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -179,22 +179,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -215,30 +274,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,69 +308,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,26 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +545,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,27 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +602,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -848,7 +848,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1130,29 +1130,29 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="11.6216216216216" customWidth="1"/>
+    <col min="2" max="2" width="9.37837837837838" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="8.25225225225225" customWidth="1"/>
+    <col min="6" max="6" width="9.74774774774775" customWidth="1"/>
+    <col min="7" max="7" width="8.5045045045045" customWidth="1"/>
+    <col min="8" max="8" width="9.62162162162162" customWidth="1"/>
+    <col min="9" max="9" width="13.3783783783784" customWidth="1"/>
+    <col min="10" max="10" width="11.5045045045045" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
-    <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="18" width="19.125" customWidth="1"/>
-    <col min="19" max="19" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="12.3783783783784" customWidth="1"/>
+    <col min="13" max="13" width="14.8738738738739" customWidth="1"/>
+    <col min="14" max="14" width="13.3783783783784" customWidth="1"/>
+    <col min="15" max="15" width="12.8738738738739" customWidth="1"/>
+    <col min="17" max="17" width="15.8738738738739" customWidth="1"/>
+    <col min="18" max="18" width="19.1261261261261" customWidth="1"/>
+    <col min="19" max="19" width="14.7477477477477" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1461,7 +1461,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>43</v>
@@ -1503,7 +1503,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1520,7 +1520,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resource_SVN/Table/TestSvnExporter.xlsx
+++ b/Assets/Resource_SVN/Table/TestSvnExporter.xlsx
@@ -164,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -179,6 +179,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,61 +246,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,62 +309,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +331,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,13 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,157 +427,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,9 +527,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +599,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,26 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,7 +1461,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>43</v>
